--- a/lesson 12(mysql)/data_set_2.xlsx
+++ b/lesson 12(mysql)/data_set_2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgribanov/PycharmProjects/data_engineer_training/lesson 12(mysql)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0DF221-1A7A-644A-82DE-11A43F9487E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2570CD9D-F24A-0149-B5C1-8CCD8802CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33620" yWindow="-280" windowWidth="33600" windowHeight="19080" xr2:uid="{56F368F8-98A2-A64C-88A5-A6786C9389A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="LEFT JOIN" sheetId="21" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="22" r:id="rId3"/>
+    <sheet name="INNER JOIN" sheetId="22" r:id="rId3"/>
+    <sheet name="FULL JOIN" sheetId="23" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$111:$P$3011</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3681" uniqueCount="359">
   <si>
     <t>id_abon</t>
   </si>
@@ -1105,6 +1106,63 @@
 left join  `period_traffic_join` as `pi`
 on `pi`.`id_abon` = `si`.`id_abon`</t>
   </si>
+  <si>
+    <t>Вернет, но с отсутсвующими данными, т.к. нет их нет в дополнительной таблице</t>
+  </si>
+  <si>
+    <t>Не вернет эту строку,  т.к. нет совпадений по id_abon в другой таблице</t>
+  </si>
+  <si>
+    <t>Не вернет эту строку,  т.к. нет совпадений по id_abon в основной таблице</t>
+  </si>
+  <si>
+    <t>Дополнительная таблица( правая )</t>
+  </si>
+  <si>
+    <t>Основная таблица ( левая )</t>
+  </si>
+  <si>
+    <t>Равнозначная таблица</t>
+  </si>
+  <si>
+    <t>select *
+from  `subscriber_information_join`
+left join `period_traffic_join`
+on `subscriber_information_join`.`id_abon` = `period_traffic_join`.`id_abon`
+union
+select *
+from  `subscriber_information_join`
+right join `period_traffic_join`
+on `subscriber_information_join`.`id_abon` = `period_traffic_join`.`id_abon`</t>
+  </si>
+  <si>
+    <t>select `si`.*, `pi`.`day`,`pi`.`traffic_gb`
+from  `subscriber_information_join` as `si`
+inner join  `period_traffic_join` as `pi`
+on `pi`.`id_abon` = `si`.`id_abon`</t>
+  </si>
+  <si>
+    <t>РЕЗУЛЬТАТ FULL JOIN</t>
+  </si>
+  <si>
+    <t>РЕЗУЛЬТАТ INNER JOIN</t>
+  </si>
+  <si>
+    <t>РЕЗУЛЬТАТ FULL JOIN (только с отсутвующими пересечениями]</t>
+  </si>
+  <si>
+    <t>select *
+from  `subscriber_information_join`
+left join `period_traffic_join`
+on `subscriber_information_join`.`id_abon` = `period_traffic_join`.`id_abon`
+where `period_traffic_join`.`id_abon` is null
+union
+select *
+from  `subscriber_information_join`
+right join `period_traffic_join`
+on `subscriber_information_join`.`id_abon` = `period_traffic_join`.`id_abon`
+where `subscriber_information_join`.`id_abon` is null</t>
+  </si>
 </sst>
 </file>
 
@@ -1189,7 +1247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1293,12 +1351,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1362,6 +1431,8 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1378,6 +1449,193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3AC320-D82F-C84B-9E4F-9DCF4DEA8DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="228" t="4142" r="72712" b="72508"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2862580" y="3573780"/>
+          <a:ext cx="2103120" cy="1463040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E3CE25-5222-6B49-8C0B-96F4F5CD274B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="37109" t="24119" r="35206" b="51917"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="3792219"/>
+          <a:ext cx="2377440" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612140</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915BD050-8E0C-384A-8C43-AE943AB308B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="22312" t="65640" r="50629" b="9547"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5214620" y="3502660"/>
+          <a:ext cx="2103120" cy="1554480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D295E72-D86A-6C41-9A50-A01B13E95F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="50010" t="67641" r="21763" b="9004"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5234940" y="8747760"/>
+          <a:ext cx="2194560" cy="1463040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1679,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061244FA-7D32-7547-9695-3F0D1044D2F2}">
   <dimension ref="A1:P3011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,7 +2030,7 @@
       </c>
       <c r="L2" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3">
         <f ca="1">INT(RAND()*(2-1)+1)</f>
@@ -1780,11 +2038,11 @@
       </c>
       <c r="N2" s="13">
         <f ca="1">INT(RAND()*(6-1)+1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="23" t="str">
         <f ca="1">INDEX($P$2:$P$4,RANDBETWEEN(1,3))</f>
-        <v xml:space="preserve"> </v>
+        <v>bad</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>311</v>
@@ -48479,7 +48737,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48492,7 +48750,7 @@
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>345</v>
       </c>
@@ -48503,8 +48761,11 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -48530,7 +48791,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>180</v>
       </c>
@@ -48554,7 +48815,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>181</v>
       </c>
@@ -48578,7 +48839,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>182</v>
       </c>
@@ -48604,7 +48865,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>184</v>
       </c>
@@ -48629,15 +48890,21 @@
       <c r="H6" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>344</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -48648,7 +48915,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>180</v>
       </c>
@@ -48659,7 +48926,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>180</v>
       </c>
@@ -48670,7 +48937,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>180</v>
       </c>
@@ -48681,7 +48948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>181</v>
       </c>
@@ -48692,7 +48959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>181</v>
       </c>
@@ -48703,7 +48970,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>181</v>
       </c>
@@ -48714,7 +48981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>182</v>
       </c>
@@ -48725,7 +48992,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>182</v>
       </c>
@@ -48745,6 +49012,9 @@
       </c>
       <c r="C17" s="2">
         <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -49107,658 +49377,1449 @@
     <mergeCell ref="A28:J28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9E62E1-F882-5B41-87C2-4C57E3E20907}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C58"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="18">
-        <v>43862</v>
-      </c>
-      <c r="C1" s="11">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="18">
-        <v>43863</v>
-      </c>
-      <c r="C2" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="37" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="30">
+        <v>43862</v>
+      </c>
+      <c r="C9" s="29">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="30">
+        <v>43863</v>
+      </c>
+      <c r="C10" s="29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="30">
         <v>43864</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C11" s="29">
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="30">
+        <v>43862</v>
+      </c>
+      <c r="C12" s="29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="30">
+        <v>43863</v>
+      </c>
+      <c r="C13" s="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="30">
+        <v>43864</v>
+      </c>
+      <c r="C14" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="30">
+        <v>43862</v>
+      </c>
+      <c r="C15" s="29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="30">
+        <v>43863</v>
+      </c>
+      <c r="C16" s="29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="18">
+        <v>43862</v>
+      </c>
+      <c r="C17" s="2">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="18">
-        <v>43865</v>
-      </c>
-      <c r="C4" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B30" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="35">
+        <v>43845</v>
+      </c>
+      <c r="E30" s="28">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
+        <v>1</v>
+      </c>
+      <c r="G30" s="36">
+        <v>3</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="18">
+        <v>43862</v>
+      </c>
+      <c r="J30" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="18">
-        <v>43866</v>
-      </c>
-      <c r="C5" s="2">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B31" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="35">
+        <v>43845</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="36">
+        <v>1</v>
+      </c>
+      <c r="G31" s="36">
+        <v>3</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="18">
+        <v>43863</v>
+      </c>
+      <c r="J31" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="18">
-        <v>43867</v>
-      </c>
-      <c r="C6" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="18">
-        <v>43868</v>
-      </c>
-      <c r="C7" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="18">
-        <v>43869</v>
-      </c>
-      <c r="C8" s="2">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="18">
-        <v>43870</v>
-      </c>
-      <c r="C9" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="18">
-        <v>43871</v>
-      </c>
-      <c r="C10" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="18">
-        <v>43872</v>
-      </c>
-      <c r="C11" s="2">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="18">
-        <v>43873</v>
-      </c>
-      <c r="C12" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="18">
-        <v>43874</v>
-      </c>
-      <c r="C13" s="2">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="18">
-        <v>43875</v>
-      </c>
-      <c r="C14" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="18">
-        <v>43876</v>
-      </c>
-      <c r="C15" s="2">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="18">
-        <v>43877</v>
-      </c>
-      <c r="C16" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="18">
-        <v>43878</v>
-      </c>
-      <c r="C17" s="2">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="18">
-        <v>43879</v>
-      </c>
-      <c r="C18" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="18">
-        <v>43880</v>
-      </c>
-      <c r="C19" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="18">
-        <v>43881</v>
-      </c>
-      <c r="C20" s="2">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="18">
-        <v>43882</v>
-      </c>
-      <c r="C21" s="2">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="18">
-        <v>43883</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="18">
-        <v>43884</v>
-      </c>
-      <c r="C23" s="2">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="18">
-        <v>43885</v>
-      </c>
-      <c r="C24" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="18">
-        <v>43886</v>
-      </c>
-      <c r="C25" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="18">
-        <v>43887</v>
-      </c>
-      <c r="C26" s="2">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="18">
-        <v>43888</v>
-      </c>
-      <c r="C27" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="18">
-        <v>43889</v>
-      </c>
-      <c r="C28" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="18">
-        <v>43890</v>
-      </c>
-      <c r="C29" s="2">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="18">
-        <v>43862</v>
-      </c>
-      <c r="C30" s="11">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="18">
-        <v>43863</v>
-      </c>
-      <c r="C31" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="18">
+      <c r="B32" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="35">
+        <v>43845</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0</v>
+      </c>
+      <c r="F32" s="36">
+        <v>1</v>
+      </c>
+      <c r="G32" s="36">
+        <v>3</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="18">
         <v>43864</v>
       </c>
-      <c r="C32" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="J32" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="18">
-        <v>43865</v>
-      </c>
-      <c r="C33" s="2">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="18">
+        <v>43851</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="30">
+        <v>43862</v>
+      </c>
+      <c r="J33" s="29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="18">
-        <v>43866</v>
-      </c>
-      <c r="C34" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="18">
+        <v>43851</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="30">
+        <v>43863</v>
+      </c>
+      <c r="J34" s="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="18">
-        <v>43867</v>
-      </c>
-      <c r="C35" s="2">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="18">
+        <v>43851</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="30">
+        <v>43864</v>
+      </c>
+      <c r="J35" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="18">
+        <v>43857</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="30">
+        <v>43862</v>
+      </c>
+      <c r="J36" s="29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18">
+        <v>43857</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I37" s="30">
+        <v>43863</v>
+      </c>
+      <c r="J37" s="29">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A28:J28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8C04FF-FE56-EE4E-9861-82230A75BA2E}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="30">
+        <v>43862</v>
+      </c>
+      <c r="C9" s="29">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="30">
+        <v>43863</v>
+      </c>
+      <c r="C10" s="29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="30">
+        <v>43864</v>
+      </c>
+      <c r="C11" s="29">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="30">
+        <v>43862</v>
+      </c>
+      <c r="C12" s="29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="30">
+        <v>43863</v>
+      </c>
+      <c r="C13" s="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="30">
+        <v>43864</v>
+      </c>
+      <c r="C14" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="30">
+        <v>43862</v>
+      </c>
+      <c r="C15" s="29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="30">
+        <v>43863</v>
+      </c>
+      <c r="C16" s="29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="18">
+        <v>43862</v>
+      </c>
+      <c r="C17" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="35">
+        <v>43845</v>
+      </c>
+      <c r="E30" s="28">
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
+        <v>1</v>
+      </c>
+      <c r="G30" s="36">
+        <v>3</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="18">
+        <v>43862</v>
+      </c>
+      <c r="K30" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="35">
+        <v>43845</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="36">
+        <v>1</v>
+      </c>
+      <c r="G31" s="36">
+        <v>3</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="18">
+        <v>43863</v>
+      </c>
+      <c r="K31" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="35">
+        <v>43845</v>
+      </c>
+      <c r="E32" s="28">
+        <v>0</v>
+      </c>
+      <c r="F32" s="36">
+        <v>1</v>
+      </c>
+      <c r="G32" s="36">
+        <v>3</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="18">
+        <v>43864</v>
+      </c>
+      <c r="K32" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="18">
+        <v>43851</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" s="30">
+        <v>43862</v>
+      </c>
+      <c r="K33" s="29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="18">
+        <v>43851</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" s="30">
+        <v>43863</v>
+      </c>
+      <c r="K34" s="29">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="18">
+        <v>43851</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="30">
+        <v>43864</v>
+      </c>
+      <c r="K35" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="18">
-        <v>43868</v>
-      </c>
-      <c r="C36" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="18">
+        <v>43857</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" s="30">
+        <v>43862</v>
+      </c>
+      <c r="K36" s="29">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="18">
-        <v>43869</v>
-      </c>
-      <c r="C37" s="2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" s="18">
-        <v>43870</v>
-      </c>
-      <c r="C38" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" s="18">
-        <v>43871</v>
-      </c>
-      <c r="C39" s="2">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="18">
-        <v>43872</v>
-      </c>
-      <c r="C40" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="18">
-        <v>43873</v>
-      </c>
-      <c r="C41" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="18">
-        <v>43874</v>
-      </c>
-      <c r="C42" s="2">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" s="18">
-        <v>43875</v>
-      </c>
-      <c r="C43" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="18">
-        <v>43876</v>
-      </c>
-      <c r="C44" s="2">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="18">
-        <v>43877</v>
-      </c>
-      <c r="C45" s="2">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="18">
-        <v>43878</v>
-      </c>
-      <c r="C46" s="2">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="18">
-        <v>43879</v>
-      </c>
-      <c r="C47" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="18">
-        <v>43880</v>
-      </c>
-      <c r="C48" s="2">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" s="18">
-        <v>43881</v>
-      </c>
-      <c r="C49" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="18">
-        <v>43882</v>
-      </c>
-      <c r="C50" s="2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B51" s="18">
-        <v>43883</v>
-      </c>
-      <c r="C51" s="2">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="18">
-        <v>43884</v>
-      </c>
-      <c r="C52" s="2">
+        <v>182</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18">
+        <v>43857</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="30">
+        <v>43863</v>
+      </c>
+      <c r="K37" s="29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="18">
+        <v>43839</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="31"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" s="18">
+        <v>43862</v>
+      </c>
+      <c r="K39" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+    </row>
+    <row r="51" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B53" s="18">
-        <v>43885</v>
-      </c>
-      <c r="C53" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="18">
-        <v>43886</v>
-      </c>
-      <c r="C54" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="18">
-        <v>43887</v>
-      </c>
-      <c r="C55" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="18">
-        <v>43888</v>
-      </c>
-      <c r="C56" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="18">
-        <v>43889</v>
-      </c>
-      <c r="C57" s="2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="18">
-        <v>43890</v>
-      </c>
-      <c r="C58" s="2">
-        <v>82</v>
+      <c r="F53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="18">
+        <v>43839</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="31"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="18">
+        <v>43862</v>
+      </c>
+      <c r="K55" s="2">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:K52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lesson 12(mysql)/data_set_2.xlsx
+++ b/lesson 12(mysql)/data_set_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgribanov/PycharmProjects/data_engineer_training/lesson 12(mysql)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2570CD9D-F24A-0149-B5C1-8CCD8802CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84760A72-C789-0943-A4CA-3AED75E7805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33620" yWindow="-280" windowWidth="33600" windowHeight="19080" xr2:uid="{56F368F8-98A2-A64C-88A5-A6786C9389A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" activeTab="1" xr2:uid="{56F368F8-98A2-A64C-88A5-A6786C9389A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,6 +1243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1391,6 +1397,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1418,21 +1433,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1937,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061244FA-7D32-7547-9695-3F0D1044D2F2}">
   <dimension ref="A1:P3011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1959,16 +1971,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="8" t="s">
         <v>331</v>
       </c>
@@ -2019,10 +2031,10 @@
       <c r="H2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="36" t="s">
         <v>333</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -2030,7 +2042,7 @@
       </c>
       <c r="L2" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3">
         <f ca="1">INT(RAND()*(2-1)+1)</f>
@@ -2040,9 +2052,9 @@
         <f ca="1">INT(RAND()*(6-1)+1)</f>
         <v>3</v>
       </c>
-      <c r="O2" s="23" t="str">
+      <c r="O2" s="32" t="str">
         <f ca="1">INDEX($P$2:$P$4,RANDBETWEEN(1,3))</f>
-        <v>bad</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P2" s="14" t="s">
         <v>311</v>
@@ -2073,10 +2085,10 @@
       <c r="H3" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="5"/>
-      <c r="O3" s="24"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="14" t="s">
         <v>312</v>
       </c>
@@ -2104,13 +2116,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="17" t="str">
         <f>_xlfn.CONCAT("insert into `data_set`.`",$A$1,"` (`",$A$3,"`,`",$B$3,"`,`",$C$3,"`,`",$D$3,"`,`",$E$3,"`,`",$F$3,"`,`",$G$3,IF(H4="","",_xlfn.CONCAT("`,`",$H$3,"")),"`) values ('",A4,"','",B4,"','",C4,"','",D4,"',",E4,",",F4,",",G4,IF(H4="","",_xlfn.CONCAT(",'",H4,"'")),");")</f>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('fdf40c5f-50d4-4d9f-a015-b5aece2aa944','Luke','Saunders','2020-01-15',0,1,3);</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="O4" s="25"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="15" t="s">
         <v>313</v>
       </c>
@@ -2138,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="17" t="str">
         <f t="shared" ref="J5:J68" si="0">_xlfn.CONCAT("insert into `data_set`.`",$A$1,"` (`",$A$3,"`,`",$B$3,"`,`",$C$3,"`,`",$D$3,"`,`",$E$3,"`,`",$F$3,"`,`",$G$3,IF(H5="","",_xlfn.CONCAT("`,`",$H$3,"")),"`) values ('",A5,"','",B5,"','",C5,"','",D5,"',",E5,",",F5,",",G5,IF(H5="","",_xlfn.CONCAT(",'",H5,"'")),");")</f>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('d8e7f123-18f6-4c09-a683-d466ee1217e1','Kirsten','Cowan','2020-01-21',0,1,1);</v>
@@ -2170,7 +2182,7 @@
       <c r="H6" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('c069c890-e499-4593-99ec-163aaedbaa90','Mackenzie','Nelson','2020-01-27',0,2,5,'good');</v>
@@ -2200,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('acbfe937-0329-4ff6-9680-cbe1b866c8d1','Piper','Cunningham','2020-01-06',0,2,2);</v>
@@ -2232,7 +2244,7 @@
       <c r="H8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('3f8af854-26a1-449d-a4a7-9bcd06a17088','Hank','Collins','2020-01-09',1,1,2,'good');</v>
@@ -2264,7 +2276,7 @@
       <c r="H9" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('cf177d81-063b-4822-84ee-ceb5f726eb1e','Crystal','Yates','2020-01-18',0,2,1,'bad');</v>
@@ -2294,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('6f6a0228-ad56-4b16-ba7d-6af91f0685da','Penelope','Craig','2020-01-15',1,1,3);</v>
@@ -2324,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('20d4dd16-9a85-4e9b-895e-61b4e3e1390d','Mark','Newman','2020-01-08',1,2,4);</v>
@@ -2356,7 +2368,7 @@
       <c r="H12" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('c94977f8-fe0f-4d64-a3bf-29936bc015f8','Matt','Alldridge','2020-01-17',1,2,3,'bad');</v>
@@ -2386,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('93278b7e-c957-4ce4-9326-639e14594655','Benjamin','Brooks','2020-01-09',1,1,5);</v>
@@ -2418,7 +2430,7 @@
       <c r="H14" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('d511f782-3d04-4622-90f4-02eb8a7c6694','Hank','Baldwin','2020-01-10',1,2,2,'good');</v>
@@ -2448,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('ccb53bc6-23e4-41be-b548-4694a7d31494','Anthony','Roberts','2020-01-31',1,1,2);</v>
@@ -2478,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('083aa6ce-0702-4521-9815-304e61894018','Maxwell','Garner','2020-01-27',1,1,1);</v>
@@ -2510,7 +2522,7 @@
       <c r="H17" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('7e84e22a-15da-46dd-88f9-b095425d0c5e','Paige','King','2020-01-04',0,1,2,'good');</v>
@@ -2542,7 +2554,7 @@
       <c r="H18" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('0318507c-12d9-4d78-9224-77b82afadad9','Fred','Broomfield','2020-01-30',0,2,2,'good');</v>
@@ -2574,7 +2586,7 @@
       <c r="H19" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('6e15b129-d4e0-41a7-a3c4-32ea6a4a9623','Maxwell','Freeburn','2020-01-21',0,1,5,'bad');</v>
@@ -2606,7 +2618,7 @@
       <c r="H20" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('a32c6a3f-2a65-4337-9b5c-0795d0f634e6','Hailey','Amstead','2020-01-11',1,1,4,'good');</v>
@@ -2638,7 +2650,7 @@
       <c r="H21" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('f236b1d9-3cfd-4879-bf3c-dec6910cf8e0','William','Bennett','2020-01-18',1,2,2,'bad');</v>
@@ -2668,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="29"/>
       <c r="J22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('c49f41b1-2675-4cf0-837f-460256d2d25a','Kendra','Carter','2020-01-10',0,2,3);</v>
@@ -2698,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('61518eff-0af4-459e-81ab-0ed58916ab75','Esmeralda','Kerr','2020-01-14',1,1,2);</v>
@@ -2728,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('e2783c9c-176e-4ab0-872c-ca266eb22bf8','Martin','Parker','2020-01-10',0,1,1);</v>
@@ -2760,7 +2772,7 @@
       <c r="H25" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('011379f1-910f-43cf-8600-a404594c32e5','Rick','Eddison','2020-01-21',1,2,4,'good');</v>
@@ -2792,7 +2804,7 @@
       <c r="H26" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('78de8503-4c05-4756-b574-59f7f6c9d214','Maddison','Farrant','2020-01-09',1,2,3,'bad');</v>
@@ -2822,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('fe863776-81c9-45c2-b537-3b55ff176cdc','Caleb','Owen','2020-01-27',1,1,4);</v>
@@ -2854,7 +2866,7 @@
       <c r="H28" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="29"/>
       <c r="J28" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('35d1dbd0-a3f6-4312-bb34-40772a652efc','Meredith','Roscoe','2020-01-01',0,1,2,'bad');</v>
@@ -2886,7 +2898,7 @@
       <c r="H29" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="29"/>
       <c r="J29" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('181acbb2-0ebb-46d1-9374-a7d967bd4fae','Charlotte','Price','2020-01-22',0,1,2,'bad');</v>
@@ -2918,7 +2930,7 @@
       <c r="H30" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('28abe939-e728-4ef7-a0b3-7ab764514906','Rose','Locke','2020-01-27',1,2,5,'good');</v>
@@ -2950,7 +2962,7 @@
       <c r="H31" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('504c2e9b-1d7e-4363-9798-bc3d6d2e816c','Tyler','Wilcox','2020-01-16',0,1,4,'bad');</v>
@@ -2980,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('5826ec5e-e6ba-4562-b261-4603b9ef9c06','Javier','Burge','2020-01-10',0,2,4);</v>
@@ -3012,7 +3024,7 @@
       <c r="H33" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('706a44d5-f4fc-4991-961d-4085c6236478','Florence','Waterhouse','2020-01-08',1,1,3,'good');</v>
@@ -3044,7 +3056,7 @@
       <c r="H34" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('f07c6f72-4160-46a8-b75c-ca334dd26ab0','Carol','Ryan','2020-01-21',0,1,4,'bad');</v>
@@ -3074,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('403ada69-ac9f-484b-a889-3bfe829d9391','Michael','Baldwin','2020-01-31',1,2,2);</v>
@@ -3106,7 +3118,7 @@
       <c r="H36" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('ed95f5eb-bbf3-4271-825d-d5046c9058a6','Chad','Corbett','2020-01-27',0,1,4,'bad');</v>
@@ -3138,7 +3150,7 @@
       <c r="H37" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('f2cb921f-165e-4b93-b8d1-a9d65cd42427','Kieth','Forth','2020-01-20',1,2,4,'good');</v>
@@ -3168,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="29"/>
       <c r="J38" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('bfcd9f6a-9269-49f0-91b8-6a344e96a580','Daron','Wilson','2020-01-13',0,1,4);</v>
@@ -3200,7 +3212,7 @@
       <c r="H39" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('da2b4ec0-5d0e-48d6-950f-5281c64fb602','Doug','Owen','2020-01-31',1,1,2,'good');</v>
@@ -5144,11 +5156,11 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="8" t="s">
         <v>331</v>
       </c>
@@ -5163,7 +5175,7 @@
       <c r="C110" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="28" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5177,7 +5189,7 @@
       <c r="C111" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D111" s="20"/>
+      <c r="D111" s="29"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -5189,7 +5201,7 @@
       <c r="C112" s="11">
         <v>462</v>
       </c>
-      <c r="D112" s="20"/>
+      <c r="D112" s="29"/>
       <c r="E112" t="str">
         <f t="shared" ref="E112:E175" si="2">_xlfn.CONCAT("insert into `data_set`.`",$A$109,"` (`",$A$111,"`,`",$B$111,"`,`",$C$111,"`) values ('",A112,"',str_to_date('",TEXT(B112,"ДД.ММ.ГГГГ"),"','%d.%m.%Y'),",C112,");")</f>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('fdf40c5f-50d4-4d9f-a015-b5aece2aa944',str_to_date('01.02.2020','%d.%m.%Y'),462);</v>
@@ -5205,7 +5217,7 @@
       <c r="C113" s="11">
         <v>145</v>
       </c>
-      <c r="D113" s="20"/>
+      <c r="D113" s="29"/>
       <c r="E113" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('d8e7f123-18f6-4c09-a683-d466ee1217e1',str_to_date('01.02.2020','%d.%m.%Y'),145);</v>
@@ -5221,7 +5233,7 @@
       <c r="C114" s="11">
         <v>119</v>
       </c>
-      <c r="D114" s="20"/>
+      <c r="D114" s="29"/>
       <c r="E114" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('c069c890-e499-4593-99ec-163aaedbaa90',str_to_date('01.02.2020','%d.%m.%Y'),119);</v>
@@ -5237,7 +5249,7 @@
       <c r="C115" s="11">
         <v>217</v>
       </c>
-      <c r="D115" s="20"/>
+      <c r="D115" s="29"/>
       <c r="E115" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('acbfe937-0329-4ff6-9680-cbe1b866c8d1',str_to_date('01.02.2020','%d.%m.%Y'),217);</v>
@@ -5253,7 +5265,7 @@
       <c r="C116" s="11">
         <v>437</v>
       </c>
-      <c r="D116" s="20"/>
+      <c r="D116" s="29"/>
       <c r="E116" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('3f8af854-26a1-449d-a4a7-9bcd06a17088',str_to_date('01.02.2020','%d.%m.%Y'),437);</v>
@@ -5269,7 +5281,7 @@
       <c r="C117" s="11">
         <v>271</v>
       </c>
-      <c r="D117" s="20"/>
+      <c r="D117" s="29"/>
       <c r="E117" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('cf177d81-063b-4822-84ee-ceb5f726eb1e',str_to_date('01.02.2020','%d.%m.%Y'),271);</v>
@@ -5285,7 +5297,7 @@
       <c r="C118" s="11">
         <v>405</v>
       </c>
-      <c r="D118" s="20"/>
+      <c r="D118" s="29"/>
       <c r="E118" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('6f6a0228-ad56-4b16-ba7d-6af91f0685da',str_to_date('01.02.2020','%d.%m.%Y'),405);</v>
@@ -5301,7 +5313,7 @@
       <c r="C119" s="11">
         <v>275</v>
       </c>
-      <c r="D119" s="20"/>
+      <c r="D119" s="29"/>
       <c r="E119" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('20d4dd16-9a85-4e9b-895e-61b4e3e1390d',str_to_date('01.02.2020','%d.%m.%Y'),275);</v>
@@ -5317,7 +5329,7 @@
       <c r="C120" s="11">
         <v>166</v>
       </c>
-      <c r="D120" s="20"/>
+      <c r="D120" s="29"/>
       <c r="E120" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('c94977f8-fe0f-4d64-a3bf-29936bc015f8',str_to_date('01.02.2020','%d.%m.%Y'),166);</v>
@@ -5333,7 +5345,7 @@
       <c r="C121" s="11">
         <v>482</v>
       </c>
-      <c r="D121" s="20"/>
+      <c r="D121" s="29"/>
       <c r="E121" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('93278b7e-c957-4ce4-9326-639e14594655',str_to_date('01.02.2020','%d.%m.%Y'),482);</v>
@@ -5349,7 +5361,7 @@
       <c r="C122" s="11">
         <v>340</v>
       </c>
-      <c r="D122" s="20"/>
+      <c r="D122" s="29"/>
       <c r="E122" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('d511f782-3d04-4622-90f4-02eb8a7c6694',str_to_date('01.02.2020','%d.%m.%Y'),340);</v>
@@ -5365,7 +5377,7 @@
       <c r="C123" s="11">
         <v>362</v>
       </c>
-      <c r="D123" s="20"/>
+      <c r="D123" s="29"/>
       <c r="E123" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('ccb53bc6-23e4-41be-b548-4694a7d31494',str_to_date('01.02.2020','%d.%m.%Y'),362);</v>
@@ -5381,7 +5393,7 @@
       <c r="C124" s="11">
         <v>498</v>
       </c>
-      <c r="D124" s="20"/>
+      <c r="D124" s="29"/>
       <c r="E124" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('083aa6ce-0702-4521-9815-304e61894018',str_to_date('01.02.2020','%d.%m.%Y'),498);</v>
@@ -5397,7 +5409,7 @@
       <c r="C125" s="11">
         <v>453</v>
       </c>
-      <c r="D125" s="20"/>
+      <c r="D125" s="29"/>
       <c r="E125" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('7e84e22a-15da-46dd-88f9-b095425d0c5e',str_to_date('01.02.2020','%d.%m.%Y'),453);</v>
@@ -5413,7 +5425,7 @@
       <c r="C126" s="11">
         <v>166</v>
       </c>
-      <c r="D126" s="20"/>
+      <c r="D126" s="29"/>
       <c r="E126" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('0318507c-12d9-4d78-9224-77b82afadad9',str_to_date('01.02.2020','%d.%m.%Y'),166);</v>
@@ -5429,7 +5441,7 @@
       <c r="C127" s="11">
         <v>374</v>
       </c>
-      <c r="D127" s="20"/>
+      <c r="D127" s="29"/>
       <c r="E127" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('6e15b129-d4e0-41a7-a3c4-32ea6a4a9623',str_to_date('01.02.2020','%d.%m.%Y'),374);</v>
@@ -5445,7 +5457,7 @@
       <c r="C128" s="11">
         <v>407</v>
       </c>
-      <c r="D128" s="20"/>
+      <c r="D128" s="29"/>
       <c r="E128" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('a32c6a3f-2a65-4337-9b5c-0795d0f634e6',str_to_date('01.02.2020','%d.%m.%Y'),407);</v>
@@ -5461,7 +5473,7 @@
       <c r="C129" s="11">
         <v>364</v>
       </c>
-      <c r="D129" s="20"/>
+      <c r="D129" s="29"/>
       <c r="E129" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('f236b1d9-3cfd-4879-bf3c-dec6910cf8e0',str_to_date('01.02.2020','%d.%m.%Y'),364);</v>
@@ -5477,7 +5489,7 @@
       <c r="C130" s="11">
         <v>187</v>
       </c>
-      <c r="D130" s="20"/>
+      <c r="D130" s="29"/>
       <c r="E130" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('c49f41b1-2675-4cf0-837f-460256d2d25a',str_to_date('01.02.2020','%d.%m.%Y'),187);</v>
@@ -5493,7 +5505,7 @@
       <c r="C131" s="11">
         <v>81</v>
       </c>
-      <c r="D131" s="20"/>
+      <c r="D131" s="29"/>
       <c r="E131" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('61518eff-0af4-459e-81ab-0ed58916ab75',str_to_date('01.02.2020','%d.%m.%Y'),81);</v>
@@ -5509,7 +5521,7 @@
       <c r="C132" s="11">
         <v>194</v>
       </c>
-      <c r="D132" s="20"/>
+      <c r="D132" s="29"/>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('e2783c9c-176e-4ab0-872c-ca266eb22bf8',str_to_date('01.02.2020','%d.%m.%Y'),194);</v>
@@ -5525,7 +5537,7 @@
       <c r="C133" s="11">
         <v>307</v>
       </c>
-      <c r="D133" s="20"/>
+      <c r="D133" s="29"/>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('011379f1-910f-43cf-8600-a404594c32e5',str_to_date('01.02.2020','%d.%m.%Y'),307);</v>
@@ -5541,7 +5553,7 @@
       <c r="C134" s="11">
         <v>73</v>
       </c>
-      <c r="D134" s="20"/>
+      <c r="D134" s="29"/>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('78de8503-4c05-4756-b574-59f7f6c9d214',str_to_date('01.02.2020','%d.%m.%Y'),73);</v>
@@ -5557,7 +5569,7 @@
       <c r="C135" s="11">
         <v>384</v>
       </c>
-      <c r="D135" s="20"/>
+      <c r="D135" s="29"/>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('fe863776-81c9-45c2-b537-3b55ff176cdc',str_to_date('01.02.2020','%d.%m.%Y'),384);</v>
@@ -5573,7 +5585,7 @@
       <c r="C136" s="11">
         <v>102</v>
       </c>
-      <c r="D136" s="20"/>
+      <c r="D136" s="29"/>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('35d1dbd0-a3f6-4312-bb34-40772a652efc',str_to_date('01.02.2020','%d.%m.%Y'),102);</v>
@@ -5589,7 +5601,7 @@
       <c r="C137" s="11">
         <v>59</v>
       </c>
-      <c r="D137" s="20"/>
+      <c r="D137" s="29"/>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('181acbb2-0ebb-46d1-9374-a7d967bd4fae',str_to_date('01.02.2020','%d.%m.%Y'),59);</v>
@@ -5605,7 +5617,7 @@
       <c r="C138" s="11">
         <v>77</v>
       </c>
-      <c r="D138" s="20"/>
+      <c r="D138" s="29"/>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('28abe939-e728-4ef7-a0b3-7ab764514906',str_to_date('01.02.2020','%d.%m.%Y'),77);</v>
@@ -5621,7 +5633,7 @@
       <c r="C139" s="11">
         <v>241</v>
       </c>
-      <c r="D139" s="20"/>
+      <c r="D139" s="29"/>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('504c2e9b-1d7e-4363-9798-bc3d6d2e816c',str_to_date('01.02.2020','%d.%m.%Y'),241);</v>
@@ -5637,7 +5649,7 @@
       <c r="C140" s="11">
         <v>329</v>
       </c>
-      <c r="D140" s="20"/>
+      <c r="D140" s="29"/>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('5826ec5e-e6ba-4562-b261-4603b9ef9c06',str_to_date('01.02.2020','%d.%m.%Y'),329);</v>
@@ -5653,7 +5665,7 @@
       <c r="C141" s="11">
         <v>78</v>
       </c>
-      <c r="D141" s="20"/>
+      <c r="D141" s="29"/>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('706a44d5-f4fc-4991-961d-4085c6236478',str_to_date('01.02.2020','%d.%m.%Y'),78);</v>
@@ -5669,7 +5681,7 @@
       <c r="C142" s="11">
         <v>387</v>
       </c>
-      <c r="D142" s="20"/>
+      <c r="D142" s="29"/>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('f07c6f72-4160-46a8-b75c-ca334dd26ab0',str_to_date('01.02.2020','%d.%m.%Y'),387);</v>
@@ -5685,7 +5697,7 @@
       <c r="C143" s="11">
         <v>468</v>
       </c>
-      <c r="D143" s="20"/>
+      <c r="D143" s="29"/>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('403ada69-ac9f-484b-a889-3bfe829d9391',str_to_date('01.02.2020','%d.%m.%Y'),468);</v>
@@ -5701,7 +5713,7 @@
       <c r="C144" s="11">
         <v>409</v>
       </c>
-      <c r="D144" s="20"/>
+      <c r="D144" s="29"/>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('ed95f5eb-bbf3-4271-825d-d5046c9058a6',str_to_date('01.02.2020','%d.%m.%Y'),409);</v>
@@ -5717,7 +5729,7 @@
       <c r="C145" s="11">
         <v>285</v>
       </c>
-      <c r="D145" s="20"/>
+      <c r="D145" s="29"/>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('f2cb921f-165e-4b93-b8d1-a9d65cd42427',str_to_date('01.02.2020','%d.%m.%Y'),285);</v>
@@ -5733,7 +5745,7 @@
       <c r="C146" s="11">
         <v>245</v>
       </c>
-      <c r="D146" s="20"/>
+      <c r="D146" s="29"/>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('bfcd9f6a-9269-49f0-91b8-6a344e96a580',str_to_date('01.02.2020','%d.%m.%Y'),245);</v>
@@ -5749,7 +5761,7 @@
       <c r="C147" s="11">
         <v>52</v>
       </c>
-      <c r="D147" s="21"/>
+      <c r="D147" s="30"/>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('da2b4ec0-5d0e-48d6-950f-5281c64fb602',str_to_date('01.02.2020','%d.%m.%Y'),52);</v>
@@ -48736,8 +48748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D98CE2-F6FB-CA4F-943C-E412C1D101F0}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48751,16 +48763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" t="s">
         <v>351</v>
       </c>
@@ -48866,7 +48878,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -48895,12 +48907,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="26" t="s">
         <v>350</v>
       </c>
     </row>
@@ -48916,90 +48928,90 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>43862</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="20">
         <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>43863</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="20">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>43864</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="20">
         <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="21">
         <v>43862</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="20">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>43863</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="20">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="21">
         <v>43864</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="21">
         <v>43862</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="20">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="21">
         <v>43863</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="20">
         <v>83</v>
       </c>
     </row>
@@ -49023,47 +49035,47 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="28" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="38"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="38"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+      <c r="A26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="38"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -49098,28 +49110,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="40">
         <v>43845</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="39">
         <v>0</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="41">
         <v>1</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="41">
         <v>3</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="18">
         <v>43862</v>
       </c>
@@ -49128,28 +49140,28 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="40">
         <v>43845</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="39">
         <v>0</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="41">
         <v>1</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="41">
         <v>3</v>
       </c>
-      <c r="H31" s="28"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="18">
         <v>43863</v>
       </c>
@@ -49158,28 +49170,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="40">
         <v>43845</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="39">
         <v>0</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="41">
         <v>1</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="41">
         <v>3</v>
       </c>
-      <c r="H32" s="28"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="18">
         <v>43864</v>
       </c>
@@ -49188,186 +49200,186 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="43">
         <v>43851</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="42">
         <v>0</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="44">
         <v>1</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="44">
         <v>1</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="30">
+      <c r="H33" s="42"/>
+      <c r="I33" s="21">
         <v>43862</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="20">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="43">
         <v>43851</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="42">
         <v>0</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="44">
         <v>1</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="44">
         <v>1</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="30">
+      <c r="H34" s="42"/>
+      <c r="I34" s="21">
         <v>43863</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="20">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="43">
         <v>43851</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="42">
         <v>0</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="44">
         <v>1</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="44">
         <v>1</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="30">
+      <c r="H35" s="42"/>
+      <c r="I35" s="21">
         <v>43864</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="43">
         <v>43857</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="42">
         <v>0</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="44">
         <v>2</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="44">
         <v>5</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="21">
         <v>43862</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="20">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="43">
         <v>43857</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="42">
         <v>0</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="44">
         <v>2</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="44">
         <v>5</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="21">
         <v>43863</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="20">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="43">
         <v>43839</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="42">
         <v>1</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="44">
         <v>1</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="44">
         <v>2</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="31"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -49385,8 +49397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9E62E1-F882-5B41-87C2-4C57E3E20907}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49396,17 +49408,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="26" t="s">
         <v>352</v>
       </c>
     </row>
@@ -49511,7 +49523,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -49540,12 +49552,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="26" t="s">
         <v>352</v>
       </c>
     </row>
@@ -49561,90 +49573,90 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>43862</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="20">
         <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>43863</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="20">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>43864</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="20">
         <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="21">
         <v>43862</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="20">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>43863</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="20">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="21">
         <v>43864</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="21">
         <v>43862</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="20">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="21">
         <v>43863</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="20">
         <v>83</v>
       </c>
     </row>
@@ -49668,47 +49680,47 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="28" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="38"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="38"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+      <c r="A26" s="38"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="38"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -49743,28 +49755,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="24">
         <v>43845</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="19">
         <v>0</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="25">
         <v>1</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="25">
         <v>3</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="18">
         <v>43862</v>
       </c>
@@ -49773,28 +49785,28 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="24">
         <v>43845</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="19">
         <v>0</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="25">
         <v>1</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="25">
         <v>3</v>
       </c>
-      <c r="H31" s="28"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="18">
         <v>43863</v>
       </c>
@@ -49803,28 +49815,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="24">
         <v>43845</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="19">
         <v>0</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="25">
         <v>1</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="25">
         <v>3</v>
       </c>
-      <c r="H32" s="28"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="18">
         <v>43864</v>
       </c>
@@ -49855,10 +49867,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="30">
+      <c r="I33" s="21">
         <v>43862</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="20">
         <v>145</v>
       </c>
     </row>
@@ -49885,10 +49897,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="30">
+      <c r="I34" s="21">
         <v>43863</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="20">
         <v>182</v>
       </c>
     </row>
@@ -49915,10 +49927,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="30">
+      <c r="I35" s="21">
         <v>43864</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="20">
         <v>32</v>
       </c>
     </row>
@@ -49947,10 +49959,10 @@
       <c r="H36" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="21">
         <v>43862</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="20">
         <v>119</v>
       </c>
     </row>
@@ -49979,10 +49991,10 @@
       <c r="H37" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="21">
         <v>43863</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="20">
         <v>83</v>
       </c>
     </row>
@@ -50003,7 +50015,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50023,16 +50035,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -50135,7 +50147,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -50161,12 +50173,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -50180,90 +50192,90 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="21">
         <v>43862</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="20">
         <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="21">
         <v>43863</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="20">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="21">
         <v>43864</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="20">
         <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="21">
         <v>43862</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="20">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="21">
         <v>43863</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="20">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="21">
         <v>43864</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="20">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="21">
         <v>43862</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="20">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="21">
         <v>43863</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="20">
         <v>83</v>
       </c>
     </row>
@@ -50284,48 +50296,48 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="28" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="33"/>
+      <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="33"/>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
+      <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="38"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
+      <c r="A24" s="38"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
+      <c r="A26" s="38"/>
     </row>
     <row r="27" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
+      <c r="A27" s="38"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -50363,29 +50375,29 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="24">
         <v>43845</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="19">
         <v>0</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="25">
         <v>1</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="25">
         <v>3</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28" t="s">
+      <c r="H30" s="19"/>
+      <c r="I30" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J30" s="18">
@@ -50396,29 +50408,29 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="24">
         <v>43845</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="19">
         <v>0</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="25">
         <v>1</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="25">
         <v>3</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J31" s="18">
@@ -50429,29 +50441,29 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="24">
         <v>43845</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="19">
         <v>0</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="25">
         <v>1</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="25">
         <v>3</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19" t="s">
         <v>180</v>
       </c>
       <c r="J32" s="18">
@@ -50487,10 +50499,10 @@
       <c r="I33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="21">
         <v>43862</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="20">
         <v>145</v>
       </c>
     </row>
@@ -50520,10 +50532,10 @@
       <c r="I34" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="21">
         <v>43863</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="20">
         <v>182</v>
       </c>
     </row>
@@ -50553,10 +50565,10 @@
       <c r="I35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="21">
         <v>43864</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="20">
         <v>32</v>
       </c>
     </row>
@@ -50588,10 +50600,10 @@
       <c r="I36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="21">
         <v>43862</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="20">
         <v>119</v>
       </c>
     </row>
@@ -50623,15 +50635,15 @@
       <c r="I37" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="21">
         <v>43863</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="20">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -50655,19 +50667,19 @@
       <c r="H38" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="31"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="2" t="s">
         <v>183</v>
       </c>
@@ -50684,48 +50696,48 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="28" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
+      <c r="A44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+      <c r="A45" s="38"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
+      <c r="A46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+      <c r="A47" s="38"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
+      <c r="A48" s="38"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
+      <c r="A49" s="38"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
+      <c r="A50" s="38"/>
     </row>
     <row r="51" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
+      <c r="A51" s="38"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -50763,7 +50775,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -50787,19 +50799,19 @@
       <c r="H54" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="31"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="22"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="2" t="s">
         <v>183</v>
       </c>
@@ -50812,12 +50824,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A52:K52"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A19:A27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A43:A51"/>
-    <mergeCell ref="A52:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/lesson 12(mysql)/data_set_2.xlsx
+++ b/lesson 12(mysql)/data_set_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgribanov/PycharmProjects/data_engineer_training/lesson 12(mysql)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84760A72-C789-0943-A4CA-3AED75E7805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543D246-E3E1-7940-A222-0714C4EB5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" activeTab="1" xr2:uid="{56F368F8-98A2-A64C-88A5-A6786C9389A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20580" xr2:uid="{56F368F8-98A2-A64C-88A5-A6786C9389A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1406,6 +1406,12 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1439,12 +1445,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061244FA-7D32-7547-9695-3F0D1044D2F2}">
   <dimension ref="A1:P3011"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,16 +1971,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="8" t="s">
         <v>331</v>
       </c>
@@ -2031,10 +2031,10 @@
       <c r="H2" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="42" t="s">
         <v>333</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="L2" s="2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3">
         <f ca="1">INT(RAND()*(2-1)+1)</f>
@@ -2050,9 +2050,9 @@
       </c>
       <c r="N2" s="13">
         <f ca="1">INT(RAND()*(6-1)+1)</f>
-        <v>3</v>
-      </c>
-      <c r="O2" s="32" t="str">
+        <v>5</v>
+      </c>
+      <c r="O2" s="38" t="str">
         <f ca="1">INDEX($P$2:$P$4,RANDBETWEEN(1,3))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -2085,10 +2085,10 @@
       <c r="H3" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="36"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="5"/>
-      <c r="O3" s="33"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="14" t="s">
         <v>312</v>
       </c>
@@ -2116,13 +2116,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="17" t="str">
         <f>_xlfn.CONCAT("insert into `data_set`.`",$A$1,"` (`",$A$3,"`,`",$B$3,"`,`",$C$3,"`,`",$D$3,"`,`",$E$3,"`,`",$F$3,"`,`",$G$3,IF(H4="","",_xlfn.CONCAT("`,`",$H$3,"")),"`) values ('",A4,"','",B4,"','",C4,"','",D4,"',",E4,",",F4,",",G4,IF(H4="","",_xlfn.CONCAT(",'",H4,"'")),");")</f>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('fdf40c5f-50d4-4d9f-a015-b5aece2aa944','Luke','Saunders','2020-01-15',0,1,3);</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="O4" s="34"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="15" t="s">
         <v>313</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="17" t="str">
         <f t="shared" ref="J5:J68" si="0">_xlfn.CONCAT("insert into `data_set`.`",$A$1,"` (`",$A$3,"`,`",$B$3,"`,`",$C$3,"`,`",$D$3,"`,`",$E$3,"`,`",$F$3,"`,`",$G$3,IF(H5="","",_xlfn.CONCAT("`,`",$H$3,"")),"`) values ('",A5,"','",B5,"','",C5,"','",D5,"',",E5,",",F5,",",G5,IF(H5="","",_xlfn.CONCAT(",'",H5,"'")),");")</f>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('d8e7f123-18f6-4c09-a683-d466ee1217e1','Kirsten','Cowan','2020-01-21',0,1,1);</v>
@@ -2182,7 +2182,7 @@
       <c r="H6" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('c069c890-e499-4593-99ec-163aaedbaa90','Mackenzie','Nelson','2020-01-27',0,2,5,'good');</v>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('acbfe937-0329-4ff6-9680-cbe1b866c8d1','Piper','Cunningham','2020-01-06',0,2,2);</v>
@@ -2244,7 +2244,7 @@
       <c r="H8" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('3f8af854-26a1-449d-a4a7-9bcd06a17088','Hank','Collins','2020-01-09',1,1,2,'good');</v>
@@ -2276,7 +2276,7 @@
       <c r="H9" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('cf177d81-063b-4822-84ee-ceb5f726eb1e','Crystal','Yates','2020-01-18',0,2,1,'bad');</v>
@@ -2306,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('6f6a0228-ad56-4b16-ba7d-6af91f0685da','Penelope','Craig','2020-01-15',1,1,3);</v>
@@ -2336,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('20d4dd16-9a85-4e9b-895e-61b4e3e1390d','Mark','Newman','2020-01-08',1,2,4);</v>
@@ -2368,7 +2368,7 @@
       <c r="H12" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('c94977f8-fe0f-4d64-a3bf-29936bc015f8','Matt','Alldridge','2020-01-17',1,2,3,'bad');</v>
@@ -2398,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('93278b7e-c957-4ce4-9326-639e14594655','Benjamin','Brooks','2020-01-09',1,1,5);</v>
@@ -2430,7 +2430,7 @@
       <c r="H14" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('d511f782-3d04-4622-90f4-02eb8a7c6694','Hank','Baldwin','2020-01-10',1,2,2,'good');</v>
@@ -2460,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('ccb53bc6-23e4-41be-b548-4694a7d31494','Anthony','Roberts','2020-01-31',1,1,2);</v>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('083aa6ce-0702-4521-9815-304e61894018','Maxwell','Garner','2020-01-27',1,1,1);</v>
@@ -2522,7 +2522,7 @@
       <c r="H17" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I17" s="29"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('7e84e22a-15da-46dd-88f9-b095425d0c5e','Paige','King','2020-01-04',0,1,2,'good');</v>
@@ -2554,7 +2554,7 @@
       <c r="H18" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('0318507c-12d9-4d78-9224-77b82afadad9','Fred','Broomfield','2020-01-30',0,2,2,'good');</v>
@@ -2586,7 +2586,7 @@
       <c r="H19" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('6e15b129-d4e0-41a7-a3c4-32ea6a4a9623','Maxwell','Freeburn','2020-01-21',0,1,5,'bad');</v>
@@ -2618,7 +2618,7 @@
       <c r="H20" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="29"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('a32c6a3f-2a65-4337-9b5c-0795d0f634e6','Hailey','Amstead','2020-01-11',1,1,4,'good');</v>
@@ -2650,7 +2650,7 @@
       <c r="H21" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I21" s="29"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('f236b1d9-3cfd-4879-bf3c-dec6910cf8e0','William','Bennett','2020-01-18',1,2,2,'bad');</v>
@@ -2680,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('c49f41b1-2675-4cf0-837f-460256d2d25a','Kendra','Carter','2020-01-10',0,2,3);</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('61518eff-0af4-459e-81ab-0ed58916ab75','Esmeralda','Kerr','2020-01-14',1,1,2);</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('e2783c9c-176e-4ab0-872c-ca266eb22bf8','Martin','Parker','2020-01-10',0,1,1);</v>
@@ -2772,7 +2772,7 @@
       <c r="H25" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I25" s="29"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('011379f1-910f-43cf-8600-a404594c32e5','Rick','Eddison','2020-01-21',1,2,4,'good');</v>
@@ -2804,7 +2804,7 @@
       <c r="H26" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I26" s="29"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('78de8503-4c05-4756-b574-59f7f6c9d214','Maddison','Farrant','2020-01-09',1,2,3,'bad');</v>
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('fe863776-81c9-45c2-b537-3b55ff176cdc','Caleb','Owen','2020-01-27',1,1,4);</v>
@@ -2866,7 +2866,7 @@
       <c r="H28" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('35d1dbd0-a3f6-4312-bb34-40772a652efc','Meredith','Roscoe','2020-01-01',0,1,2,'bad');</v>
@@ -2898,7 +2898,7 @@
       <c r="H29" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I29" s="29"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('181acbb2-0ebb-46d1-9374-a7d967bd4fae','Charlotte','Price','2020-01-22',0,1,2,'bad');</v>
@@ -2930,7 +2930,7 @@
       <c r="H30" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="29"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('28abe939-e728-4ef7-a0b3-7ab764514906','Rose','Locke','2020-01-27',1,2,5,'good');</v>
@@ -2962,7 +2962,7 @@
       <c r="H31" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I31" s="29"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('504c2e9b-1d7e-4363-9798-bc3d6d2e816c','Tyler','Wilcox','2020-01-16',0,1,4,'bad');</v>
@@ -2992,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('5826ec5e-e6ba-4562-b261-4603b9ef9c06','Javier','Burge','2020-01-10',0,2,4);</v>
@@ -3024,7 +3024,7 @@
       <c r="H33" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('706a44d5-f4fc-4991-961d-4085c6236478','Florence','Waterhouse','2020-01-08',1,1,3,'good');</v>
@@ -3056,7 +3056,7 @@
       <c r="H34" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I34" s="29"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('f07c6f72-4160-46a8-b75c-ca334dd26ab0','Carol','Ryan','2020-01-21',0,1,4,'bad');</v>
@@ -3086,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="29"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('403ada69-ac9f-484b-a889-3bfe829d9391','Michael','Baldwin','2020-01-31',1,2,2);</v>
@@ -3118,7 +3118,7 @@
       <c r="H36" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="I36" s="29"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('ed95f5eb-bbf3-4271-825d-d5046c9058a6','Chad','Corbett','2020-01-27',0,1,4,'bad');</v>
@@ -3150,7 +3150,7 @@
       <c r="H37" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I37" s="29"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('f2cb921f-165e-4b93-b8d1-a9d65cd42427','Kieth','Forth','2020-01-20',1,2,4,'good');</v>
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="29"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`) values ('bfcd9f6a-9269-49f0-91b8-6a344e96a580','Daron','Wilson','2020-01-13',0,1,4);</v>
@@ -3212,7 +3212,7 @@
       <c r="H39" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="17" t="str">
         <f t="shared" si="0"/>
         <v>insert into `data_set`.`subscriber_information` (`id_abon`,`first_name`,`last_name`,`connection_date`,`trust_payment`,`number_of_internet_devices`,`number_of_tv_devices`,`comment_when_сonnecting`) values ('da2b4ec0-5d0e-48d6-950f-5281c64fb602','Doug','Owen','2020-01-31',1,1,2,'good');</v>
@@ -5156,11 +5156,11 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="8" t="s">
         <v>331</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="C110" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="34" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       <c r="C111" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="D111" s="29"/>
+      <c r="D111" s="35"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -5201,7 +5201,7 @@
       <c r="C112" s="11">
         <v>462</v>
       </c>
-      <c r="D112" s="29"/>
+      <c r="D112" s="35"/>
       <c r="E112" t="str">
         <f t="shared" ref="E112:E175" si="2">_xlfn.CONCAT("insert into `data_set`.`",$A$109,"` (`",$A$111,"`,`",$B$111,"`,`",$C$111,"`) values ('",A112,"',str_to_date('",TEXT(B112,"ДД.ММ.ГГГГ"),"','%d.%m.%Y'),",C112,");")</f>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('fdf40c5f-50d4-4d9f-a015-b5aece2aa944',str_to_date('01.02.2020','%d.%m.%Y'),462);</v>
@@ -5217,7 +5217,7 @@
       <c r="C113" s="11">
         <v>145</v>
       </c>
-      <c r="D113" s="29"/>
+      <c r="D113" s="35"/>
       <c r="E113" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('d8e7f123-18f6-4c09-a683-d466ee1217e1',str_to_date('01.02.2020','%d.%m.%Y'),145);</v>
@@ -5233,7 +5233,7 @@
       <c r="C114" s="11">
         <v>119</v>
       </c>
-      <c r="D114" s="29"/>
+      <c r="D114" s="35"/>
       <c r="E114" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('c069c890-e499-4593-99ec-163aaedbaa90',str_to_date('01.02.2020','%d.%m.%Y'),119);</v>
@@ -5249,7 +5249,7 @@
       <c r="C115" s="11">
         <v>217</v>
       </c>
-      <c r="D115" s="29"/>
+      <c r="D115" s="35"/>
       <c r="E115" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('acbfe937-0329-4ff6-9680-cbe1b866c8d1',str_to_date('01.02.2020','%d.%m.%Y'),217);</v>
@@ -5265,7 +5265,7 @@
       <c r="C116" s="11">
         <v>437</v>
       </c>
-      <c r="D116" s="29"/>
+      <c r="D116" s="35"/>
       <c r="E116" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('3f8af854-26a1-449d-a4a7-9bcd06a17088',str_to_date('01.02.2020','%d.%m.%Y'),437);</v>
@@ -5281,7 +5281,7 @@
       <c r="C117" s="11">
         <v>271</v>
       </c>
-      <c r="D117" s="29"/>
+      <c r="D117" s="35"/>
       <c r="E117" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('cf177d81-063b-4822-84ee-ceb5f726eb1e',str_to_date('01.02.2020','%d.%m.%Y'),271);</v>
@@ -5297,7 +5297,7 @@
       <c r="C118" s="11">
         <v>405</v>
       </c>
-      <c r="D118" s="29"/>
+      <c r="D118" s="35"/>
       <c r="E118" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('6f6a0228-ad56-4b16-ba7d-6af91f0685da',str_to_date('01.02.2020','%d.%m.%Y'),405);</v>
@@ -5313,7 +5313,7 @@
       <c r="C119" s="11">
         <v>275</v>
       </c>
-      <c r="D119" s="29"/>
+      <c r="D119" s="35"/>
       <c r="E119" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('20d4dd16-9a85-4e9b-895e-61b4e3e1390d',str_to_date('01.02.2020','%d.%m.%Y'),275);</v>
@@ -5329,7 +5329,7 @@
       <c r="C120" s="11">
         <v>166</v>
       </c>
-      <c r="D120" s="29"/>
+      <c r="D120" s="35"/>
       <c r="E120" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('c94977f8-fe0f-4d64-a3bf-29936bc015f8',str_to_date('01.02.2020','%d.%m.%Y'),166);</v>
@@ -5345,7 +5345,7 @@
       <c r="C121" s="11">
         <v>482</v>
       </c>
-      <c r="D121" s="29"/>
+      <c r="D121" s="35"/>
       <c r="E121" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('93278b7e-c957-4ce4-9326-639e14594655',str_to_date('01.02.2020','%d.%m.%Y'),482);</v>
@@ -5361,7 +5361,7 @@
       <c r="C122" s="11">
         <v>340</v>
       </c>
-      <c r="D122" s="29"/>
+      <c r="D122" s="35"/>
       <c r="E122" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('d511f782-3d04-4622-90f4-02eb8a7c6694',str_to_date('01.02.2020','%d.%m.%Y'),340);</v>
@@ -5377,7 +5377,7 @@
       <c r="C123" s="11">
         <v>362</v>
       </c>
-      <c r="D123" s="29"/>
+      <c r="D123" s="35"/>
       <c r="E123" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('ccb53bc6-23e4-41be-b548-4694a7d31494',str_to_date('01.02.2020','%d.%m.%Y'),362);</v>
@@ -5393,7 +5393,7 @@
       <c r="C124" s="11">
         <v>498</v>
       </c>
-      <c r="D124" s="29"/>
+      <c r="D124" s="35"/>
       <c r="E124" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('083aa6ce-0702-4521-9815-304e61894018',str_to_date('01.02.2020','%d.%m.%Y'),498);</v>
@@ -5409,7 +5409,7 @@
       <c r="C125" s="11">
         <v>453</v>
       </c>
-      <c r="D125" s="29"/>
+      <c r="D125" s="35"/>
       <c r="E125" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('7e84e22a-15da-46dd-88f9-b095425d0c5e',str_to_date('01.02.2020','%d.%m.%Y'),453);</v>
@@ -5425,7 +5425,7 @@
       <c r="C126" s="11">
         <v>166</v>
       </c>
-      <c r="D126" s="29"/>
+      <c r="D126" s="35"/>
       <c r="E126" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('0318507c-12d9-4d78-9224-77b82afadad9',str_to_date('01.02.2020','%d.%m.%Y'),166);</v>
@@ -5441,7 +5441,7 @@
       <c r="C127" s="11">
         <v>374</v>
       </c>
-      <c r="D127" s="29"/>
+      <c r="D127" s="35"/>
       <c r="E127" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('6e15b129-d4e0-41a7-a3c4-32ea6a4a9623',str_to_date('01.02.2020','%d.%m.%Y'),374);</v>
@@ -5457,7 +5457,7 @@
       <c r="C128" s="11">
         <v>407</v>
       </c>
-      <c r="D128" s="29"/>
+      <c r="D128" s="35"/>
       <c r="E128" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('a32c6a3f-2a65-4337-9b5c-0795d0f634e6',str_to_date('01.02.2020','%d.%m.%Y'),407);</v>
@@ -5473,7 +5473,7 @@
       <c r="C129" s="11">
         <v>364</v>
       </c>
-      <c r="D129" s="29"/>
+      <c r="D129" s="35"/>
       <c r="E129" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('f236b1d9-3cfd-4879-bf3c-dec6910cf8e0',str_to_date('01.02.2020','%d.%m.%Y'),364);</v>
@@ -5489,7 +5489,7 @@
       <c r="C130" s="11">
         <v>187</v>
       </c>
-      <c r="D130" s="29"/>
+      <c r="D130" s="35"/>
       <c r="E130" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('c49f41b1-2675-4cf0-837f-460256d2d25a',str_to_date('01.02.2020','%d.%m.%Y'),187);</v>
@@ -5505,7 +5505,7 @@
       <c r="C131" s="11">
         <v>81</v>
       </c>
-      <c r="D131" s="29"/>
+      <c r="D131" s="35"/>
       <c r="E131" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('61518eff-0af4-459e-81ab-0ed58916ab75',str_to_date('01.02.2020','%d.%m.%Y'),81);</v>
@@ -5521,7 +5521,7 @@
       <c r="C132" s="11">
         <v>194</v>
       </c>
-      <c r="D132" s="29"/>
+      <c r="D132" s="35"/>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('e2783c9c-176e-4ab0-872c-ca266eb22bf8',str_to_date('01.02.2020','%d.%m.%Y'),194);</v>
@@ -5537,7 +5537,7 @@
       <c r="C133" s="11">
         <v>307</v>
       </c>
-      <c r="D133" s="29"/>
+      <c r="D133" s="35"/>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('011379f1-910f-43cf-8600-a404594c32e5',str_to_date('01.02.2020','%d.%m.%Y'),307);</v>
@@ -5553,7 +5553,7 @@
       <c r="C134" s="11">
         <v>73</v>
       </c>
-      <c r="D134" s="29"/>
+      <c r="D134" s="35"/>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('78de8503-4c05-4756-b574-59f7f6c9d214',str_to_date('01.02.2020','%d.%m.%Y'),73);</v>
@@ -5569,7 +5569,7 @@
       <c r="C135" s="11">
         <v>384</v>
       </c>
-      <c r="D135" s="29"/>
+      <c r="D135" s="35"/>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('fe863776-81c9-45c2-b537-3b55ff176cdc',str_to_date('01.02.2020','%d.%m.%Y'),384);</v>
@@ -5585,7 +5585,7 @@
       <c r="C136" s="11">
         <v>102</v>
       </c>
-      <c r="D136" s="29"/>
+      <c r="D136" s="35"/>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('35d1dbd0-a3f6-4312-bb34-40772a652efc',str_to_date('01.02.2020','%d.%m.%Y'),102);</v>
@@ -5601,7 +5601,7 @@
       <c r="C137" s="11">
         <v>59</v>
       </c>
-      <c r="D137" s="29"/>
+      <c r="D137" s="35"/>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('181acbb2-0ebb-46d1-9374-a7d967bd4fae',str_to_date('01.02.2020','%d.%m.%Y'),59);</v>
@@ -5617,7 +5617,7 @@
       <c r="C138" s="11">
         <v>77</v>
       </c>
-      <c r="D138" s="29"/>
+      <c r="D138" s="35"/>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('28abe939-e728-4ef7-a0b3-7ab764514906',str_to_date('01.02.2020','%d.%m.%Y'),77);</v>
@@ -5633,7 +5633,7 @@
       <c r="C139" s="11">
         <v>241</v>
       </c>
-      <c r="D139" s="29"/>
+      <c r="D139" s="35"/>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('504c2e9b-1d7e-4363-9798-bc3d6d2e816c',str_to_date('01.02.2020','%d.%m.%Y'),241);</v>
@@ -5649,7 +5649,7 @@
       <c r="C140" s="11">
         <v>329</v>
       </c>
-      <c r="D140" s="29"/>
+      <c r="D140" s="35"/>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('5826ec5e-e6ba-4562-b261-4603b9ef9c06',str_to_date('01.02.2020','%d.%m.%Y'),329);</v>
@@ -5665,7 +5665,7 @@
       <c r="C141" s="11">
         <v>78</v>
       </c>
-      <c r="D141" s="29"/>
+      <c r="D141" s="35"/>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('706a44d5-f4fc-4991-961d-4085c6236478',str_to_date('01.02.2020','%d.%m.%Y'),78);</v>
@@ -5681,7 +5681,7 @@
       <c r="C142" s="11">
         <v>387</v>
       </c>
-      <c r="D142" s="29"/>
+      <c r="D142" s="35"/>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('f07c6f72-4160-46a8-b75c-ca334dd26ab0',str_to_date('01.02.2020','%d.%m.%Y'),387);</v>
@@ -5697,7 +5697,7 @@
       <c r="C143" s="11">
         <v>468</v>
       </c>
-      <c r="D143" s="29"/>
+      <c r="D143" s="35"/>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('403ada69-ac9f-484b-a889-3bfe829d9391',str_to_date('01.02.2020','%d.%m.%Y'),468);</v>
@@ -5713,7 +5713,7 @@
       <c r="C144" s="11">
         <v>409</v>
       </c>
-      <c r="D144" s="29"/>
+      <c r="D144" s="35"/>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('ed95f5eb-bbf3-4271-825d-d5046c9058a6',str_to_date('01.02.2020','%d.%m.%Y'),409);</v>
@@ -5729,7 +5729,7 @@
       <c r="C145" s="11">
         <v>285</v>
       </c>
-      <c r="D145" s="29"/>
+      <c r="D145" s="35"/>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('f2cb921f-165e-4b93-b8d1-a9d65cd42427',str_to_date('01.02.2020','%d.%m.%Y'),285);</v>
@@ -5745,7 +5745,7 @@
       <c r="C146" s="11">
         <v>245</v>
       </c>
-      <c r="D146" s="29"/>
+      <c r="D146" s="35"/>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('bfcd9f6a-9269-49f0-91b8-6a344e96a580',str_to_date('01.02.2020','%d.%m.%Y'),245);</v>
@@ -5761,7 +5761,7 @@
       <c r="C147" s="11">
         <v>52</v>
       </c>
-      <c r="D147" s="30"/>
+      <c r="D147" s="36"/>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
         <v>insert into `data_set`.`period_traffic` (`id_abon`,`day`,`traffic_gb`) values ('da2b4ec0-5d0e-48d6-950f-5281c64fb602',str_to_date('01.02.2020','%d.%m.%Y'),52);</v>
@@ -48748,7 +48748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D98CE2-F6FB-CA4F-943C-E412C1D101F0}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -48763,16 +48763,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
       <c r="I1" t="s">
         <v>351</v>
       </c>
@@ -48907,11 +48907,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="26" t="s">
         <v>350</v>
       </c>
@@ -49035,47 +49035,47 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="34" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="44"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="44"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>343</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -49110,28 +49110,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="29">
         <v>43845</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="28">
         <v>0</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="30">
         <v>1</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="30">
         <v>3</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="18">
         <v>43862</v>
       </c>
@@ -49140,28 +49140,28 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="29">
         <v>43845</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="28">
         <v>0</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="30">
         <v>1</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="30">
         <v>3</v>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="18">
         <v>43863</v>
       </c>
@@ -49170,28 +49170,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="29">
         <v>43845</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="28">
         <v>0</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="30">
         <v>1</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="30">
         <v>3</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="18">
         <v>43864</v>
       </c>
@@ -49200,28 +49200,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="32">
         <v>43851</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="31">
         <v>0</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="33">
         <v>1</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="33">
         <v>1</v>
       </c>
-      <c r="H33" s="42"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="21">
         <v>43862</v>
       </c>
@@ -49230,28 +49230,28 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="32">
         <v>43851</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="31">
         <v>0</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="33">
         <v>1</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="33">
         <v>1</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="21">
         <v>43863</v>
       </c>
@@ -49260,28 +49260,28 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="32">
         <v>43851</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="31">
         <v>0</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="33">
         <v>1</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="33">
         <v>1</v>
       </c>
-      <c r="H35" s="42"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="21">
         <v>43864</v>
       </c>
@@ -49290,28 +49290,28 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="32">
         <v>43857</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="31">
         <v>0</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="33">
         <v>2</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="33">
         <v>5</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="31" t="s">
         <v>311</v>
       </c>
       <c r="I36" s="21">
@@ -49322,28 +49322,28 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="32">
         <v>43857</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="31">
         <v>0</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="33">
         <v>2</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="33">
         <v>5</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="31" t="s">
         <v>311</v>
       </c>
       <c r="I37" s="21">
@@ -49354,28 +49354,28 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="32">
         <v>43839</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="31">
         <v>1</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="33">
         <v>1</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="33">
         <v>2</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="31" t="s">
         <v>311</v>
       </c>
       <c r="I38" s="23"/>
@@ -49408,16 +49408,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
       <c r="I1" s="26" t="s">
         <v>352</v>
       </c>
@@ -49552,11 +49552,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="26" t="s">
         <v>352</v>
       </c>
@@ -49680,47 +49680,47 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="34" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="44"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="44"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="44"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="44"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -50035,16 +50035,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -50173,11 +50173,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -50296,48 +50296,48 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="34" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="44"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="44"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
+      <c r="A22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
+      <c r="A23" s="44"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="44"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="44"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
+      <c r="A26" s="44"/>
     </row>
     <row r="27" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="44"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -50696,48 +50696,48 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="34" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="38"/>
+      <c r="A44" s="44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="38"/>
+      <c r="A45" s="44"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="38"/>
+      <c r="A46" s="44"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="38"/>
+      <c r="A47" s="44"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
+      <c r="A48" s="44"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
+      <c r="A49" s="44"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
+      <c r="A50" s="44"/>
     </row>
     <row r="51" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
+      <c r="A51" s="44"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
